--- a/scripts/data/senior_test_data.xlsx
+++ b/scripts/data/senior_test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifan_zhu/repo/huhang/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5385153D-5EA4-724F-8AFA-350627505F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4680F898-4BFB-1B44-B87A-45E88D11C36D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16400" yWindow="8160" windowWidth="32540" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2000" yWindow="3420" windowWidth="35420" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>usa</t>
   </si>
@@ -191,6 +191,21 @@
   </si>
   <si>
     <t>major_name_level_2</t>
+  </si>
+  <si>
+    <t>user_grade</t>
+  </si>
+  <si>
+    <t>l1</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>l4</t>
+  </si>
+  <si>
+    <t>l3</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1557,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.59765625" defaultRowHeight="13.5" customHeight="1"/>
@@ -1603,6 +1618,9 @@
       <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" spans="1:256" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1643,6 +1661,9 @@
       </c>
       <c r="O2" s="1">
         <v>18511112222</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="IQ2"/>
       <c r="IR2"/>
@@ -1691,6 +1712,9 @@
       <c r="O3" s="1">
         <v>18511112222</v>
       </c>
+      <c r="P3" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="IQ3"/>
       <c r="IR3"/>
       <c r="IS3"/>
@@ -1738,6 +1762,9 @@
       <c r="O4" s="1">
         <v>18511112222</v>
       </c>
+      <c r="P4" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="IQ4"/>
       <c r="IR4"/>
       <c r="IS4"/>
@@ -1785,6 +1812,9 @@
       <c r="O5" s="1">
         <v>18511112222</v>
       </c>
+      <c r="P5" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="IQ5"/>
       <c r="IR5"/>
       <c r="IS5"/>
@@ -1831,6 +1861,9 @@
       </c>
       <c r="O6" s="1">
         <v>18511112222</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="IQ6"/>
       <c r="IR6"/>
